--- a/ExcelReportGenerator.Tests/TestData/DefaultReportGeneratorTest/TestRenderWithCustomVariableAndFunctionProviders.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DefaultReportGeneratorTest/TestRenderWithCustomVariableAndFunctionProviders.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Sheet1</x:t>
   </x:si>
   <x:si>
     <x:t>Custom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20171025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -380,20 +389,20 @@
       <x:c r="B2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="n">
-        <x:v>20171025</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="n">
-        <x:v>20</x:v>
+      <x:c r="E2" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
